--- a/data/2022 Ayesha-Chlorantran/reference.xlsx
+++ b/data/2022 Ayesha-Chlorantran/reference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>concentration</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>hormesis_concentration</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,23 +92,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,16 +412,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,12 +433,12 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -459,13 +450,13 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
+      <c r="F2" s="1">
+        <v>80</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5">
         <v>10</v>
       </c>
       <c r="B3" s="4">
@@ -473,16 +464,12 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5">
         <v>40</v>
       </c>
       <c r="B4" s="4">
@@ -490,14 +477,12 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5">
         <v>80</v>
       </c>
       <c r="B5" s="4">
@@ -505,13 +490,11 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>160</v>
       </c>
@@ -520,13 +503,11 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>320</v>
       </c>
@@ -539,7 +520,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>640</v>
       </c>
@@ -552,7 +533,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>1280</v>
       </c>
